--- a/testData/view.xlsx
+++ b/testData/view.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr codeName="ThisWorkbook"/>
-  <s:bookViews>
-    <s:workbookView activeTab="1"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="测试用例" sheetId="1" r:id="rId1"/>
-    <s:sheet name="移动空调" sheetId="2" r:id="rId2"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView xWindow="600" yWindow="510" windowWidth="20175" windowHeight="7425" activeTab="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="测试用例" sheetId="1" r:id="rId1"/>
+    <sheet name="移动空调" sheetId="2" r:id="rId2"/>
+  </sheets>
+  <calcPr calcId="125725"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>序号</t>
   </si>
@@ -92,9 +92,6 @@
     <t>firefox</t>
   </si>
   <si>
-    <t>2019-06-21 16:38:27</t>
-  </si>
-  <si>
     <t>窗口最大化</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>loginpwd_id</t>
   </si>
   <si>
-    <t>jyy19960609</t>
-  </si>
-  <si>
     <t>点击登录</t>
   </si>
   <si>
@@ -189,60 +183,37 @@
   </si>
   <si>
     <t>移动空调 4挡风速</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>2019-06-21 16:38:30</t>
-  </si>
-  <si>
-    <t>2019-06-21 16:38:33</t>
-  </si>
-  <si>
-    <t>2019-06-21 16:38:34</t>
-  </si>
-  <si>
-    <t>2019-06-21 16:38:35</t>
-  </si>
-  <si>
-    <t>2019-06-21 16:38:37</t>
-  </si>
-  <si>
-    <t>2019-06-21 16:38:40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF008B00"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF008B00"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color rgb="00000000"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -258,26 +229,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="22" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -567,26 +538,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="14.5"/>
-    <col customWidth="1" max="3" min="3" width="31.625"/>
-    <col customWidth="1" max="4" min="4" width="14.875"/>
-    <col customWidth="1" max="5" min="5" width="19.625"/>
-    <col customWidth="1" max="6" min="6" width="25.75"/>
-    <col customWidth="1" max="7" min="7" width="11"/>
-    <col customWidth="1" max="8" min="8" width="21.25"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="25.75" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -618,8 +585,8 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" spans="1:9">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:9" ht="15" customHeight="1">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -637,39 +604,36 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="n"/>
+      <c r="I2" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H12"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="11"/>
-    <col customWidth="1" max="2" min="2" style="4" width="30"/>
-    <col customWidth="1" max="3" min="3" style="4" width="32.625"/>
-    <col customWidth="1" max="4" min="4" style="4" width="25.75"/>
-    <col customWidth="1" max="5" min="5" style="4" width="61.75"/>
-    <col customWidth="1" max="6" min="6" style="4" width="33.25"/>
-    <col customWidth="1" max="7" min="7" style="4" width="25.125"/>
-    <col customWidth="1" max="8" min="8" style="4" width="11"/>
-    <col customWidth="1" max="9" min="9" style="4" width="20.75"/>
-    <col customWidth="1" max="16" min="10" style="4" width="11"/>
-    <col customWidth="1" max="16384" min="17" style="4" width="11"/>
+    <col min="1" max="1" width="11" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30" style="4" customWidth="1"/>
+    <col min="3" max="3" width="32.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="25.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="61.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="33.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20.75" style="4" customWidth="1"/>
+    <col min="10" max="17" width="11" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -704,8 +668,8 @@
         <v>21</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" spans="1:10">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:10" ht="15" customHeight="1">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -717,336 +681,287 @@
       <c r="F2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="3" spans="1:10">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="G3"/>
+      <c r="H3" s="3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="4" spans="1:10">
-      <c r="A4" s="4" t="n">
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4" s="2"/>
+      <c r="I4"/>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="G5"/>
+      <c r="H5" s="3"/>
+      <c r="I5"/>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6" s="3"/>
+      <c r="I6"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="5" spans="1:10">
-      <c r="A5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="4" t="n">
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7" s="3"/>
+      <c r="I7"/>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8" s="3"/>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9" s="3"/>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10" s="3"/>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="4">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="6" spans="1:10">
-      <c r="A6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="7" spans="1:10">
-      <c r="A7" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="8" spans="1:10">
-      <c r="A8" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>18578260550</v>
-      </c>
-      <c r="G8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="9" spans="1:10">
-      <c r="A9" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="G11"/>
+      <c r="H11" s="3"/>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12" s="3"/>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="10" spans="1:10">
-      <c r="A10" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="11" spans="1:10">
-      <c r="A11" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="12" spans="1:10">
-      <c r="A12" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="G12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="F15" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>57</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testData/view.xlsx
+++ b/testData/view.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="570" windowWidth="27735" windowHeight="11700" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="570" windowWidth="27735" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例" sheetId="1" r:id="rId1"/>
     <sheet name="格力三代" sheetId="2" r:id="rId2"/>
-    <sheet name="店铺收藏" sheetId="3" r:id="rId3"/>
+    <sheet name="广东省" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="81">
   <si>
     <t>序号</t>
   </si>
@@ -60,13 +60,10 @@
     <t>n</t>
   </si>
   <si>
-    <t>2019-06-24 14:40:17</t>
-  </si>
-  <si>
-    <t>点击店铺收藏</t>
-  </si>
-  <si>
-    <t>店铺收藏</t>
+    <t>2019-06-25 09:44:20</t>
+  </si>
+  <si>
+    <t>failed</t>
   </si>
   <si>
     <t>y</t>
@@ -153,9 +150,6 @@
     <t>loginpwd_id</t>
   </si>
   <si>
-    <t>jyy19960609</t>
-  </si>
-  <si>
     <t>点击登录</t>
   </si>
   <si>
@@ -183,22 +177,91 @@
     <t>3代手机 5.99英寸 暗光拍摄 留住色彩的每次跃动 G0335D 烟雨灰</t>
   </si>
   <si>
-    <t>鼠标移至我的收藏</t>
-  </si>
-  <si>
-    <t>mouse_rover</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div[2]/ul/li[4]/a/span</t>
-  </si>
-  <si>
-    <t>failed</t>
-  </si>
-  <si>
     <t>pass</t>
   </si>
   <si>
-    <t>2019-06-24 14:40:39</t>
+    <t>https://mall.gree.com/</t>
+  </si>
+  <si>
+    <t>进入格力三代</t>
+  </si>
+  <si>
+    <t>切换标签页</t>
+  </si>
+  <si>
+    <t>switch_window</t>
+  </si>
+  <si>
+    <t>点击立即购买</t>
+  </si>
+  <si>
+    <t>J_LinkBuy</t>
+  </si>
+  <si>
+    <t>新增收货地址</t>
+  </si>
+  <si>
+    <t>addAddress</t>
+  </si>
+  <si>
+    <t>选择省</t>
+  </si>
+  <si>
+    <t>select_option</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>2019-06-25 09:44:25</t>
+  </si>
+  <si>
+    <t>2019-06-25 09:44:29</t>
+  </si>
+  <si>
+    <t>2019-06-25 09:44:32</t>
+  </si>
+  <si>
+    <t>2019-06-25 09:44:33</t>
+  </si>
+  <si>
+    <t>2019-06-25 09:44:34</t>
+  </si>
+  <si>
+    <t>2019-06-25 09:44:35</t>
+  </si>
+  <si>
+    <t>2019-06-25 09:44:38</t>
+  </si>
+  <si>
+    <t>2019-06-25 09:44:39</t>
+  </si>
+  <si>
+    <t>2019-06-25 09:44:41</t>
+  </si>
+  <si>
+    <t>2019-06-25 09:44:43</t>
+  </si>
+  <si>
+    <t>2019-06-25 09:44:45</t>
+  </si>
+  <si>
+    <t>2019-06-25 09:44:46</t>
+  </si>
+  <si>
+    <t>2019-06-25 09:44:48</t>
+  </si>
+  <si>
+    <t>选择省份</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择广东省</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -564,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -631,33 +694,33 @@
         <v>14</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -671,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -686,8 +749,8 @@
     <col min="7" max="7" width="25.125" style="4" customWidth="1"/>
     <col min="8" max="8" width="11" style="4" customWidth="1"/>
     <col min="9" max="9" width="20.75" style="4" customWidth="1"/>
-    <col min="10" max="20" width="11" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="11" style="4"/>
+    <col min="10" max="24" width="11" style="4" customWidth="1"/>
+    <col min="25" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -695,31 +758,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
@@ -727,13 +790,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="2"/>
@@ -743,10 +806,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -755,13 +818,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -770,10 +833,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="F5" s="4">
         <v>3</v>
@@ -785,13 +848,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -800,10 +863,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -815,19 +878,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="4">
-        <v>18578260550</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -836,19 +896,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -857,16 +914,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="H10" s="3"/>
     </row>
@@ -875,10 +932,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="F11" s="4">
         <v>3</v>
@@ -890,16 +947,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -908,10 +965,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="F13" s="4">
         <v>3</v>
@@ -923,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="H14" s="3"/>
     </row>
@@ -942,10 +999,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -959,8 +1016,8 @@
     <col min="7" max="7" width="25.125" style="4" customWidth="1"/>
     <col min="8" max="8" width="11" style="4" customWidth="1"/>
     <col min="9" max="9" width="20.75" style="4" customWidth="1"/>
-    <col min="10" max="20" width="11" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="11" style="4"/>
+    <col min="10" max="24" width="11" style="4" customWidth="1"/>
+    <col min="25" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -968,31 +1025,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
@@ -1000,16 +1057,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="I2"/>
       <c r="J2"/>
     </row>
@@ -1018,13 +1079,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="I3"/>
       <c r="J3"/>
     </row>
@@ -1033,16 +1098,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="I4"/>
       <c r="J4"/>
     </row>
@@ -1051,16 +1120,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="F5" s="4">
         <v>3</v>
       </c>
-      <c r="G5"/>
-      <c r="H5" s="3"/>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="I5"/>
       <c r="J5"/>
     </row>
@@ -1069,16 +1142,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6" s="3"/>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="I6"/>
       <c r="J6"/>
     </row>
@@ -1087,16 +1164,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7"/>
-      <c r="H7" s="3"/>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="I7"/>
       <c r="J7"/>
     </row>
@@ -1105,22 +1186,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="4">
-        <v>18578260550</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8" s="3"/>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="I8"/>
       <c r="J8"/>
     </row>
@@ -1129,19 +1211,23 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9"/>
-      <c r="H9" s="3"/>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
     </row>
@@ -1150,19 +1236,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10"/>
-      <c r="H10" s="3"/>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="I10"/>
       <c r="J10"/>
     </row>
@@ -1171,16 +1261,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="F11" s="4">
         <v>3</v>
       </c>
-      <c r="G11"/>
-      <c r="H11" s="3"/>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
     </row>
@@ -1192,16 +1286,20 @@
         <v>55</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12"/>
-      <c r="H12" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="I12"/>
       <c r="J12"/>
     </row>
@@ -1210,16 +1308,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
       </c>
-      <c r="G13"/>
-      <c r="H13" s="3"/>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="I13"/>
       <c r="J13"/>
     </row>
@@ -1228,18 +1330,166 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14"/>
-      <c r="H14" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="I14"/>
       <c r="J14"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="4">
+        <v>440000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
